--- a/Nicht verügbar.xlsx
+++ b/Nicht verügbar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\GitHub\AR-Education\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,23 +635,23 @@
 </v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Dear Vorname Nachname, 
 As a group of three students at the University of Cologne, Germany, we are currently conducting a literature review on applications of augmented reality in educational environments. Our aim is to provide a consolidated overview of related benefits.
@@ -915,23 +915,23 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Dear Vorname Nachname, 
 As a group of three students at the University of Cologne, Germany, we are currently conducting a literature review on applications of augmented reality in educational environments. Our aim is to provide a consolidated overview of related benefits.

--- a/Nicht verügbar.xlsx
+++ b/Nicht verügbar.xlsx
@@ -216,7 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
